--- a/game_ranking/src/data/developer_list.xlsx
+++ b/game_ranking/src/data/developer_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasika\Desktop\AGS\repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rasika\Desktop\AGS\repos\game_ranking\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B6C321-F87F-42AC-96F2-38DDCB6867CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB4DF1-9059-4254-BB4B-B31C6CAC2E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A46ED513-DDF8-419E-B6AB-16737DD34014}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="842">
   <si>
     <t>No.</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Total Hybrid Weighted Points</t>
   </si>
   <si>
-    <t>FromSoftware, Inc.</t>
-  </si>
-  <si>
     <t>The Fun Pimps</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Gearbox Software</t>
   </si>
   <si>
-    <t>CAPCOM Co., Ltd.</t>
-  </si>
-  <si>
     <t>Saber Interactive</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Sloclap</t>
   </si>
   <si>
-    <t>Cygames, Inc.</t>
-  </si>
-  <si>
     <t>Bandai Namco</t>
   </si>
   <si>
@@ -204,18 +195,12 @@
     <t>Overhype Studios</t>
   </si>
   <si>
-    <t>Forward Development, Ltd.</t>
-  </si>
-  <si>
     <t>Sonic Team</t>
   </si>
   <si>
     <t>Funcom</t>
   </si>
   <si>
-    <t>Spike Chunsoft Co., Ltd.</t>
-  </si>
-  <si>
     <t>Bennett Foddy</t>
   </si>
   <si>
@@ -312,9 +297,6 @@
     <t>Teyon</t>
   </si>
   <si>
-    <t>HYDE, Inc.</t>
-  </si>
-  <si>
     <t>Thorium</t>
   </si>
   <si>
@@ -336,9 +318,6 @@
     <t>Trigger Happy Interactive</t>
   </si>
   <si>
-    <t>KOEI TECMO GAMES CO., LTD.</t>
-  </si>
-  <si>
     <t>Tlön Industries</t>
   </si>
   <si>
@@ -369,9 +348,6 @@
     <t>Gleamer Studio</t>
   </si>
   <si>
-    <t>Brownies inc.</t>
-  </si>
-  <si>
     <t>Clock Wizard Games</t>
   </si>
   <si>
@@ -519,9 +495,6 @@
     <t>Nacon Studio Milan</t>
   </si>
   <si>
-    <t>Gemdrops, Inc.</t>
-  </si>
-  <si>
     <t>Microids Studio Paris</t>
   </si>
   <si>
@@ -627,9 +600,6 @@
     <t>WanadevStudio</t>
   </si>
   <si>
-    <t>Fallen Tree Games Ltd</t>
-  </si>
-  <si>
     <t>the last evil wizard</t>
   </si>
   <si>
@@ -642,9 +612,6 @@
     <t>Team Soda</t>
   </si>
   <si>
-    <t>Asobism.Co.,Ltd</t>
-  </si>
-  <si>
     <t>Sleepy Mill Studio</t>
   </si>
   <si>
@@ -744,9 +711,6 @@
     <t>Eden Games</t>
   </si>
   <si>
-    <t>M2 Co.,LTD</t>
-  </si>
-  <si>
     <t>Pocket Trap</t>
   </si>
   <si>
@@ -825,9 +789,6 @@
     <t>Zenovia Interactive</t>
   </si>
   <si>
-    <t>ReLU Games, Inc.</t>
-  </si>
-  <si>
     <t>ReLU Games</t>
   </si>
   <si>
@@ -843,9 +804,6 @@
     <t>RetroLab</t>
   </si>
   <si>
-    <t>Dusklight CO., LTD.</t>
-  </si>
-  <si>
     <t>FreeMind S.A.</t>
   </si>
   <si>
@@ -906,9 +864,6 @@
     <t>Reborn Entertainment</t>
   </si>
   <si>
-    <t>Castle Pixel, LLC.</t>
-  </si>
-  <si>
     <t>Beeswax Games</t>
   </si>
   <si>
@@ -981,9 +936,6 @@
     <t>FromSouthGames</t>
   </si>
   <si>
-    <t>Something Classic Games LLC</t>
-  </si>
-  <si>
     <t>Playables</t>
   </si>
   <si>
@@ -999,9 +951,6 @@
     <t>Troglobytes Games</t>
   </si>
   <si>
-    <t>Chronicle Games Ltd</t>
-  </si>
-  <si>
     <t>Brain Seal Ltd</t>
   </si>
   <si>
@@ -1050,9 +999,6 @@
     <t>Unfinished Pixel</t>
   </si>
   <si>
-    <t>Deep Games LLC</t>
-  </si>
-  <si>
     <t>Trioskaz</t>
   </si>
   <si>
@@ -1425,9 +1371,6 @@
     <t>OldSchool Laws Team</t>
   </si>
   <si>
-    <t>uvula LLC</t>
-  </si>
-  <si>
     <t>Studio Far Out Games</t>
   </si>
   <si>
@@ -1458,9 +1401,6 @@
     <t>Tekden Studio</t>
   </si>
   <si>
-    <t>Brickadia, LLC</t>
-  </si>
-  <si>
     <t>Sassy Chap Games</t>
   </si>
   <si>
@@ -1470,15 +1410,9 @@
     <t>NBDR Games</t>
   </si>
   <si>
-    <t>SAS CO.,LTD.</t>
-  </si>
-  <si>
     <t>Garage Monkeys</t>
   </si>
   <si>
-    <t>Big Brane Studios, Inc.</t>
-  </si>
-  <si>
     <t>Ritual Studios</t>
   </si>
   <si>
@@ -1494,9 +1428,6 @@
     <t>SAFE HAVN STUDIO</t>
   </si>
   <si>
-    <t>Team Complex LTD</t>
-  </si>
-  <si>
     <t>The Gang</t>
   </si>
   <si>
@@ -1560,9 +1491,6 @@
     <t>Othergate</t>
   </si>
   <si>
-    <t>Pochemu LTD</t>
-  </si>
-  <si>
     <t>Parallel 45 Games</t>
   </si>
   <si>
@@ -1608,12 +1536,6 @@
     <t>TWEN</t>
   </si>
   <si>
-    <t>Clockwork Laboratories, Inc.</t>
-  </si>
-  <si>
-    <t>X-Legend Entertainment Co., Ltd.</t>
-  </si>
-  <si>
     <t>GeoGuessr</t>
   </si>
   <si>
@@ -1647,9 +1569,6 @@
     <t>Spiderwinkle games</t>
   </si>
   <si>
-    <t>Innersloth LLC</t>
-  </si>
-  <si>
     <t>Wētā Workshop</t>
   </si>
   <si>
@@ -1743,9 +1662,6 @@
     <t>Cutefish</t>
   </si>
   <si>
-    <t>Little Fighter Co Pty Ltd</t>
-  </si>
-  <si>
     <t>Pigeons at Play</t>
   </si>
   <si>
@@ -1761,9 +1677,6 @@
     <t>はちからビスケット</t>
   </si>
   <si>
-    <t>Frag Lab LLC</t>
-  </si>
-  <si>
     <t>Loonworks Games</t>
   </si>
   <si>
@@ -1818,12 +1731,6 @@
     <t>CrimsonRoute Games</t>
   </si>
   <si>
-    <t>ONEUNIVERSE Co., Ltd.</t>
-  </si>
-  <si>
-    <t>Foxtail Games LLC</t>
-  </si>
-  <si>
     <t>Sam C</t>
   </si>
   <si>
@@ -1836,9 +1743,6 @@
     <t>Etheria team</t>
   </si>
   <si>
-    <t>Yuke's Co., LTD</t>
-  </si>
-  <si>
     <t>Inresin</t>
   </si>
   <si>
@@ -2241,9 +2145,6 @@
     <t>Amarta Tales</t>
   </si>
   <si>
-    <t>rat cream games LLC</t>
-  </si>
-  <si>
     <t>Cameron Smith-Randick</t>
   </si>
   <si>
@@ -2313,9 +2214,6 @@
     <t>Be Revolution Gaming</t>
   </si>
   <si>
-    <t>NOW PRODUCTION Co., Ltd.</t>
-  </si>
-  <si>
     <t>Positive Concept Games</t>
   </si>
   <si>
@@ -2364,9 +2262,6 @@
     <t>BubbleTabby</t>
   </si>
   <si>
-    <t>Matariki Studios Co., Ltd</t>
-  </si>
-  <si>
     <t>Majestic Mind Games</t>
   </si>
   <si>
@@ -2451,9 +2346,6 @@
     <t>Working as Intended</t>
   </si>
   <si>
-    <t>iRacing.com Motorsport Simulations LLC</t>
-  </si>
-  <si>
     <t>The Wildcard Alliance</t>
   </si>
   <si>
@@ -2475,9 +2367,6 @@
     <t>Pound Cake Workshop</t>
   </si>
   <si>
-    <t>Channel37 Ltd</t>
-  </si>
-  <si>
     <t>Inklingwood Studios</t>
   </si>
   <si>
@@ -2550,10 +2439,118 @@
     <t>Nuggets Entertainment</t>
   </si>
   <si>
-    <t>KOEI TECMO GAMES CO.  LTD.</t>
-  </si>
-  <si>
     <t>青水庵</t>
+  </si>
+  <si>
+    <t>FromSoftware Inc.</t>
+  </si>
+  <si>
+    <t>Cygames Inc.</t>
+  </si>
+  <si>
+    <t>HYDE Inc.</t>
+  </si>
+  <si>
+    <t>Gemdrops Inc.</t>
+  </si>
+  <si>
+    <t>Big Brane Studios Inc.</t>
+  </si>
+  <si>
+    <t>Clockwork Laboratories Inc.</t>
+  </si>
+  <si>
+    <t>Brownies Inc.</t>
+  </si>
+  <si>
+    <t>CAPCOM Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Forward Development Ltd.</t>
+  </si>
+  <si>
+    <t>Spike Chunsoft Co. Ltd.</t>
+  </si>
+  <si>
+    <t>KOEI TECMO GAMES CO. Ltd.</t>
+  </si>
+  <si>
+    <t>Dusklight CO. Ltd.</t>
+  </si>
+  <si>
+    <t>X-Legend Entertainment Co. Ltd.</t>
+  </si>
+  <si>
+    <t>ONEUNIVERSE Co. Ltd.</t>
+  </si>
+  <si>
+    <t>NOW PRODUCTION Co. Ltd.</t>
+  </si>
+  <si>
+    <t>SAS CO. Ltd.</t>
+  </si>
+  <si>
+    <t>Yuke's Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Matariki Studios Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Asobism.Co. Ltd.</t>
+  </si>
+  <si>
+    <t>M2 Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Castle Pixel LLC.</t>
+  </si>
+  <si>
+    <t>Fallen Tree Games Ltd.</t>
+  </si>
+  <si>
+    <t>Chronicle Games Ltd.</t>
+  </si>
+  <si>
+    <t>Team Complex Ltd.</t>
+  </si>
+  <si>
+    <t>Pochemu Ltd.</t>
+  </si>
+  <si>
+    <t>Little Fighter Co Pty Ltd.</t>
+  </si>
+  <si>
+    <t>Channel37 Ltd.</t>
+  </si>
+  <si>
+    <t>KOEI TECMO GAMES CO.  Ltd.</t>
+  </si>
+  <si>
+    <t>Something Classic Games LLC.</t>
+  </si>
+  <si>
+    <t>Deep Games LLC.</t>
+  </si>
+  <si>
+    <t>uvula LLC.</t>
+  </si>
+  <si>
+    <t>Brickadia, LLC.</t>
+  </si>
+  <si>
+    <t>Innersloth LLC.</t>
+  </si>
+  <si>
+    <t>Frag Lab LLC.</t>
+  </si>
+  <si>
+    <t>Foxtail Games LLC.</t>
+  </si>
+  <si>
+    <t>rat cream games LLC.</t>
+  </si>
+  <si>
+    <t>iRacing.com Motorsport Simulations LLC.</t>
   </si>
 </sst>
 </file>
@@ -3144,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BAF061-4550-4D00-B5A2-CCAEB962F6EC}">
   <dimension ref="A1:D888"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>805</v>
       </c>
       <c r="C2" s="7">
         <v>243200000</v>
@@ -3190,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7">
         <v>234700000</v>
@@ -3205,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7">
         <v>102600000</v>
@@ -3220,7 +3217,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7">
         <v>81100000</v>
@@ -3235,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="7">
         <v>76400000</v>
@@ -3250,7 +3247,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7">
         <v>55200000</v>
@@ -3265,7 +3262,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
         <v>49000000</v>
@@ -3280,7 +3277,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12">
         <v>47000000</v>
@@ -3295,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <v>45000000</v>
@@ -3310,7 +3307,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
         <v>43800000</v>
@@ -3325,7 +3322,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
         <v>34800000</v>
@@ -3340,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>34200000</v>
@@ -3355,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>33800000</v>
@@ -3370,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
         <v>29700000</v>
@@ -3385,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7">
         <v>29300000</v>
@@ -3400,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>27700000</v>
@@ -3415,7 +3412,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7">
         <v>27600000</v>
@@ -3430,7 +3427,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>812</v>
       </c>
       <c r="C19" s="7">
         <v>26200000</v>
@@ -3445,7 +3442,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="14">
         <v>25200000</v>
@@ -3460,7 +3457,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="14">
         <v>25200000</v>
@@ -3475,7 +3472,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="7">
         <v>24200000</v>
@@ -3490,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="7">
         <v>23800000</v>
@@ -3505,7 +3502,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>22900000</v>
@@ -3520,7 +3517,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>22700000</v>
@@ -3535,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>22000000</v>
@@ -3550,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>22000000</v>
@@ -3565,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="7">
         <v>21900000</v>
@@ -3580,7 +3577,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7">
         <v>21800000</v>
@@ -3595,7 +3592,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>21000000</v>
@@ -3610,7 +3607,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
         <v>20300000</v>
@@ -3625,7 +3622,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
         <v>20200000</v>
@@ -3640,7 +3637,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>20000000</v>
@@ -3655,7 +3652,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C34" s="7">
         <v>19100000</v>
@@ -3670,7 +3667,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" s="12">
         <v>18400000</v>
@@ -3685,7 +3682,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="7">
         <v>16300000</v>
@@ -3700,7 +3697,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="7">
         <v>16000000</v>
@@ -3715,7 +3712,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="14">
         <v>15500000</v>
@@ -3730,7 +3727,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="14">
         <v>15100000</v>
@@ -3745,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="7">
         <v>15000000</v>
@@ -3760,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="14">
         <v>12600000</v>
@@ -3775,7 +3772,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7">
         <v>12400000</v>
@@ -3790,7 +3787,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="14">
         <v>12100000</v>
@@ -3805,7 +3802,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>46</v>
+        <v>806</v>
       </c>
       <c r="C44" s="7">
         <v>11900000</v>
@@ -3820,7 +3817,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C45" s="7">
         <v>11900000</v>
@@ -3835,7 +3832,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="7">
         <v>11800000</v>
@@ -3850,7 +3847,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="7">
         <v>11400000</v>
@@ -3865,7 +3862,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" s="7">
         <v>10600000</v>
@@ -3880,7 +3877,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" s="7">
         <v>10300000</v>
@@ -3895,7 +3892,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>10000000</v>
@@ -3910,7 +3907,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" s="7">
         <v>10000000</v>
@@ -3925,7 +3922,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" s="7">
         <v>9600000</v>
@@ -3940,7 +3937,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" s="7">
         <v>9400000</v>
@@ -3955,7 +3952,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C54" s="14">
         <v>9300000</v>
@@ -3970,7 +3967,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C55" s="14">
         <v>9300000</v>
@@ -3985,7 +3982,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C56" s="7">
         <v>9300000</v>
@@ -4000,7 +3997,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>59</v>
+        <v>813</v>
       </c>
       <c r="C57" s="14">
         <v>8800000</v>
@@ -4015,7 +4012,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C58" s="7">
         <v>8800000</v>
@@ -4030,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C59" s="12">
         <v>8400000</v>
@@ -4045,7 +4042,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>62</v>
+        <v>814</v>
       </c>
       <c r="C60" s="7">
         <v>8400000</v>
@@ -4060,7 +4057,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C61" s="7">
         <v>8400000</v>
@@ -4075,7 +4072,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C62" s="7">
         <v>7300000</v>
@@ -4090,7 +4087,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C63" s="7">
         <v>7100000</v>
@@ -4105,7 +4102,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C64" s="12">
         <v>6900000</v>
@@ -4120,7 +4117,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C65" s="7">
         <v>6700000</v>
@@ -4135,7 +4132,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C66" s="7">
         <v>6200000</v>
@@ -4150,7 +4147,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C67" s="7">
         <v>6000000</v>
@@ -4165,7 +4162,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C68" s="7">
         <v>6000000</v>
@@ -4180,7 +4177,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C69" s="7">
         <v>6000000</v>
@@ -4195,7 +4192,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C70" s="7">
         <v>5900000</v>
@@ -4210,7 +4207,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" s="7">
         <v>5800000</v>
@@ -4225,7 +4222,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C72" s="7">
         <v>5800000</v>
@@ -4240,7 +4237,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C73" s="7">
         <v>5700000</v>
@@ -4255,7 +4252,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C74" s="14">
         <v>5500000</v>
@@ -4270,7 +4267,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C75" s="7">
         <v>5500000</v>
@@ -4285,7 +4282,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C76" s="7">
         <v>5400000</v>
@@ -4300,7 +4297,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C77" s="7">
         <v>5200000</v>
@@ -4315,7 +4312,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C78" s="7">
         <v>5200000</v>
@@ -4330,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C79" s="7">
         <v>5100000</v>
@@ -4345,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C80" s="7">
         <v>5000000</v>
@@ -4360,7 +4357,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C81" s="7">
         <v>4700000</v>
@@ -4375,7 +4372,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C82" s="7">
         <v>4700000</v>
@@ -4390,7 +4387,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C83" s="7">
         <v>4700000</v>
@@ -4405,7 +4402,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C84" s="14">
         <v>4600000</v>
@@ -4420,7 +4417,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C85" s="7">
         <v>4600000</v>
@@ -4435,7 +4432,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C86" s="7">
         <v>4500000</v>
@@ -4450,7 +4447,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C87" s="7">
         <v>4500000</v>
@@ -4465,7 +4462,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C88" s="7">
         <v>4500000</v>
@@ -4480,7 +4477,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C89" s="7">
         <v>4000000</v>
@@ -4495,7 +4492,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C90" s="7">
         <v>4000000</v>
@@ -4510,7 +4507,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C91" s="7">
         <v>3600000</v>
@@ -4525,7 +4522,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C92" s="7">
         <v>3600000</v>
@@ -4540,7 +4537,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>95</v>
+        <v>807</v>
       </c>
       <c r="C93" s="7">
         <v>3600000</v>
@@ -4555,7 +4552,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C94" s="12">
         <v>3500000</v>
@@ -4570,7 +4567,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C95" s="7">
         <v>3500000</v>
@@ -4585,7 +4582,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C96" s="7">
         <v>3500000</v>
@@ -4600,7 +4597,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C97" s="7">
         <v>3500000</v>
@@ -4615,7 +4612,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C98" s="7">
         <v>3500000</v>
@@ -4630,7 +4627,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C99" s="7">
         <v>3300000</v>
@@ -4645,7 +4642,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C100" s="14">
         <v>3200000</v>
@@ -4660,7 +4657,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>103</v>
+        <v>815</v>
       </c>
       <c r="C101" s="7">
         <v>3200000</v>
@@ -4675,7 +4672,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C102" s="7">
         <v>3200000</v>
@@ -4690,7 +4687,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C103" s="7">
         <v>3100000</v>
@@ -4705,7 +4702,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C104" s="7">
         <v>3100000</v>
@@ -4720,7 +4717,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C105" s="7">
         <v>3000000</v>
@@ -4735,7 +4732,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C106" s="7">
         <v>3000000</v>
@@ -4750,7 +4747,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C107" s="7">
         <v>3000000</v>
@@ -4765,7 +4762,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C108" s="7">
         <v>3000000</v>
@@ -4780,7 +4777,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C109" s="7">
         <v>2800000</v>
@@ -4795,7 +4792,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C110" s="7">
         <v>2800000</v>
@@ -4810,7 +4807,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C111" s="7">
         <v>2700000</v>
@@ -4825,7 +4822,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>114</v>
+        <v>811</v>
       </c>
       <c r="C112" s="7">
         <v>2700000</v>
@@ -4840,7 +4837,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C113" s="7">
         <v>2500000</v>
@@ -4855,7 +4852,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C114" s="7">
         <v>2500000</v>
@@ -4870,7 +4867,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C115" s="7">
         <v>2200000</v>
@@ -4885,7 +4882,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C116" s="7">
         <v>2200000</v>
@@ -4900,7 +4897,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C117" s="7">
         <v>2200000</v>
@@ -4915,7 +4912,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C118" s="7">
         <v>2200000</v>
@@ -4930,7 +4927,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C119" s="7">
         <v>2000000</v>
@@ -4945,7 +4942,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C120" s="7">
         <v>1900000</v>
@@ -4960,7 +4957,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C121" s="7">
         <v>1900000</v>
@@ -4975,7 +4972,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C122" s="7">
         <v>1700000</v>
@@ -4990,7 +4987,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C123" s="7">
         <v>1700000</v>
@@ -5005,7 +5002,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C124" s="7">
         <v>1700000</v>
@@ -5020,7 +5017,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C125" s="7">
         <v>1700000</v>
@@ -5035,7 +5032,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C126" s="7">
         <v>1700000</v>
@@ -5050,7 +5047,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C127" s="7">
         <v>1600000</v>
@@ -5065,7 +5062,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C128" s="12">
         <v>1500000</v>
@@ -5080,7 +5077,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C129" s="7">
         <v>1500000</v>
@@ -5095,7 +5092,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C130" s="7">
         <v>1500000</v>
@@ -5110,7 +5107,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C131" s="7">
         <v>1500000</v>
@@ -5125,7 +5122,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C132" s="7">
         <v>1500000</v>
@@ -5140,7 +5137,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C133" s="7">
         <v>1400000</v>
@@ -5155,7 +5152,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C134" s="7">
         <v>1400000</v>
@@ -5170,7 +5167,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C135" s="7">
         <v>1400000</v>
@@ -5185,7 +5182,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C136" s="7">
         <v>1300000</v>
@@ -5200,7 +5197,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C137" s="7">
         <v>1300000</v>
@@ -5215,7 +5212,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C138" s="7">
         <v>1300000</v>
@@ -5230,7 +5227,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C139" s="7">
         <v>1200000</v>
@@ -5245,7 +5242,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C140" s="7">
         <v>1200000</v>
@@ -5260,7 +5257,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C141" s="7">
         <v>1200000</v>
@@ -5275,7 +5272,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C142" s="7">
         <v>1200000</v>
@@ -5290,7 +5287,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C143" s="7">
         <v>1200000</v>
@@ -5305,7 +5302,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C144" s="7">
         <v>1200000</v>
@@ -5320,7 +5317,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C145" s="14">
         <v>1100000</v>
@@ -5335,7 +5332,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C146" s="7">
         <v>1100000</v>
@@ -5350,7 +5347,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C147" s="7">
         <v>1100000</v>
@@ -5365,7 +5362,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C148" s="7">
         <v>1100000</v>
@@ -5380,7 +5377,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C149" s="7">
         <v>1100000</v>
@@ -5395,7 +5392,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C150" s="7">
         <v>1100000</v>
@@ -5410,7 +5407,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C151" s="7">
         <v>1100000</v>
@@ -5425,7 +5422,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C152" s="7">
         <v>1100000</v>
@@ -5440,7 +5437,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C153" s="12">
         <v>990000</v>
@@ -5455,7 +5452,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C154" s="7">
         <v>977000</v>
@@ -5470,7 +5467,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C155" s="7">
         <v>969000</v>
@@ -5485,7 +5482,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C156" s="7">
         <v>931000</v>
@@ -5500,7 +5497,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C157" s="7">
         <v>928000</v>
@@ -5515,7 +5512,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C158" s="7">
         <v>920000</v>
@@ -5530,7 +5527,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C159" s="7">
         <v>911000</v>
@@ -5545,7 +5542,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C160" s="14">
         <v>910000</v>
@@ -5560,7 +5557,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C161" s="7">
         <v>892000</v>
@@ -5575,7 +5572,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>164</v>
+        <v>808</v>
       </c>
       <c r="C162" s="7">
         <v>830000</v>
@@ -5590,7 +5587,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C163" s="7">
         <v>827000</v>
@@ -5605,7 +5602,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C164" s="7">
         <v>808000</v>
@@ -5620,7 +5617,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C165" s="7">
         <v>781000</v>
@@ -5635,7 +5632,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C166" s="7">
         <v>749000</v>
@@ -5650,7 +5647,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C167" s="7">
         <v>745000</v>
@@ -5665,7 +5662,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C168" s="7">
         <v>743000</v>
@@ -5680,7 +5677,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C169" s="14">
         <v>726000</v>
@@ -5695,7 +5692,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C170" s="7">
         <v>726000</v>
@@ -5710,7 +5707,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C171" s="7">
         <v>721000</v>
@@ -5725,7 +5722,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C172" s="7">
         <v>684000</v>
@@ -5740,7 +5737,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C173" s="7">
         <v>684000</v>
@@ -5755,7 +5752,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C174" s="7">
         <v>670000</v>
@@ -5770,7 +5767,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C175" s="7">
         <v>663000</v>
@@ -5785,7 +5782,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C176" s="7">
         <v>651000</v>
@@ -5800,7 +5797,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C177" s="7">
         <v>642000</v>
@@ -5815,7 +5812,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C178" s="7">
         <v>641000</v>
@@ -5830,7 +5827,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C179" s="7">
         <v>638000</v>
@@ -5845,7 +5842,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C180" s="7">
         <v>614000</v>
@@ -5860,7 +5857,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C181" s="7">
         <v>610000</v>
@@ -5875,7 +5872,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C182" s="7">
         <v>603000</v>
@@ -5890,7 +5887,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C183" s="7">
         <v>565000</v>
@@ -5905,7 +5902,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C184" s="12">
         <v>560000</v>
@@ -5920,7 +5917,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C185" s="7">
         <v>546000</v>
@@ -5935,7 +5932,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C186" s="12">
         <v>528000</v>
@@ -5950,7 +5947,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C187" s="7">
         <v>518000</v>
@@ -5965,7 +5962,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C188" s="7">
         <v>518000</v>
@@ -5980,7 +5977,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C189" s="14">
         <v>510000</v>
@@ -5995,7 +5992,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C190" s="7">
         <v>506000</v>
@@ -6010,7 +6007,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C191" s="7">
         <v>496000</v>
@@ -6025,7 +6022,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C192" s="7">
         <v>488000</v>
@@ -6040,7 +6037,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C193" s="7">
         <v>485000</v>
@@ -6055,7 +6052,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C194" s="7">
         <v>470000</v>
@@ -6070,7 +6067,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C195" s="7">
         <v>466000</v>
@@ -6085,7 +6082,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C196" s="7">
         <v>460000</v>
@@ -6100,7 +6097,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C197" s="7">
         <v>434000</v>
@@ -6115,7 +6112,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>200</v>
+        <v>826</v>
       </c>
       <c r="C198" s="7">
         <v>432000</v>
@@ -6130,7 +6127,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C199" s="7">
         <v>423000</v>
@@ -6145,7 +6142,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C200" s="7">
         <v>422000</v>
@@ -6160,7 +6157,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C201" s="7">
         <v>411000</v>
@@ -6175,7 +6172,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C202" s="7">
         <v>390000</v>
@@ -6190,7 +6187,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>205</v>
+        <v>823</v>
       </c>
       <c r="C203" s="7">
         <v>378000</v>
@@ -6205,7 +6202,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C204" s="7">
         <v>368000</v>
@@ -6220,7 +6217,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C205" s="7">
         <v>368000</v>
@@ -6235,7 +6232,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C206" s="7">
         <v>344000</v>
@@ -6250,7 +6247,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C207" s="7">
         <v>335000</v>
@@ -6265,7 +6262,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C208" s="7">
         <v>327000</v>
@@ -6280,7 +6277,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C209" s="7">
         <v>308000</v>
@@ -6295,7 +6292,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C210" s="7">
         <v>297000</v>
@@ -6310,7 +6307,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C211" s="7">
         <v>293000</v>
@@ -6325,7 +6322,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C212" s="7">
         <v>292000</v>
@@ -6340,7 +6337,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C213" s="7">
         <v>290000</v>
@@ -6355,7 +6352,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C214" s="7">
         <v>286000</v>
@@ -6370,7 +6367,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C215" s="7">
         <v>276000</v>
@@ -6385,7 +6382,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C216" s="14">
         <v>269000</v>
@@ -6400,7 +6397,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C217" s="7">
         <v>269000</v>
@@ -6415,7 +6412,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C218" s="12">
         <v>266000</v>
@@ -6430,7 +6427,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C219" s="7">
         <v>265000</v>
@@ -6445,7 +6442,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C220" s="7">
         <v>253000</v>
@@ -6460,7 +6457,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C221" s="14">
         <v>252000</v>
@@ -6475,7 +6472,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C222" s="14">
         <v>249000</v>
@@ -6490,7 +6487,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C223" s="7">
         <v>238000</v>
@@ -6505,7 +6502,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C224" s="7">
         <v>236000</v>
@@ -6520,7 +6517,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C225" s="7">
         <v>225000</v>
@@ -6535,7 +6532,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C226" s="7">
         <v>223000</v>
@@ -6550,7 +6547,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C227" s="7">
         <v>220000</v>
@@ -6565,7 +6562,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C228" s="7">
         <v>219000</v>
@@ -6580,7 +6577,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C229" s="7">
         <v>212000</v>
@@ -6595,7 +6592,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C230" s="7">
         <v>211000</v>
@@ -6610,7 +6607,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C231" s="7">
         <v>204000</v>
@@ -6625,7 +6622,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C232" s="7">
         <v>202000</v>
@@ -6640,7 +6637,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C233" s="7">
         <v>202000</v>
@@ -6655,7 +6652,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C234" s="7">
         <v>201000</v>
@@ -6670,7 +6667,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C235" s="7">
         <v>198000</v>
@@ -6685,7 +6682,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C236" s="7">
         <v>196000</v>
@@ -6700,7 +6697,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>239</v>
+        <v>824</v>
       </c>
       <c r="C237" s="7">
         <v>195000</v>
@@ -6715,7 +6712,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C238" s="7">
         <v>193000</v>
@@ -6730,7 +6727,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C239" s="7">
         <v>191000</v>
@@ -6745,7 +6742,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C240" s="7">
         <v>190000</v>
@@ -6760,7 +6757,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C241" s="7">
         <v>183000</v>
@@ -6775,7 +6772,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C242" s="12">
         <v>182000</v>
@@ -6790,7 +6787,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C243" s="7">
         <v>181000</v>
@@ -6805,7 +6802,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C244" s="12">
         <v>176000</v>
@@ -6820,7 +6817,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C245" s="7">
         <v>175000</v>
@@ -6835,7 +6832,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C246" s="7">
         <v>175000</v>
@@ -6850,7 +6847,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C247" s="7">
         <v>169000</v>
@@ -6865,7 +6862,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C248" s="7">
         <v>159000</v>
@@ -6880,7 +6877,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C249" s="7">
         <v>155000</v>
@@ -6895,7 +6892,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C250" s="7">
         <v>154000</v>
@@ -6910,7 +6907,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C251" s="12">
         <v>150000</v>
@@ -6925,7 +6922,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C252" s="7">
         <v>148000</v>
@@ -6940,7 +6937,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C253" s="7">
         <v>148000</v>
@@ -6955,7 +6952,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C254" s="14">
         <v>142000</v>
@@ -6970,7 +6967,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C255" s="7">
         <v>140000</v>
@@ -6985,7 +6982,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C256" s="7">
         <v>134000</v>
@@ -7000,7 +6997,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C257" s="12">
         <v>133000</v>
@@ -7015,7 +7012,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C258" s="7">
         <v>132000</v>
@@ -7030,7 +7027,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C259" s="7">
         <v>132000</v>
@@ -7045,7 +7042,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C260" s="7">
         <v>128000</v>
@@ -7060,7 +7057,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C261" s="7">
         <v>127000</v>
@@ -7075,7 +7072,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C262" s="7">
         <v>126000</v>
@@ -7090,7 +7087,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C263" s="7">
         <v>126000</v>
@@ -7105,7 +7102,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C264" s="7">
         <v>126000</v>
@@ -7120,7 +7117,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C265" s="7">
         <v>125000</v>
@@ -7135,7 +7132,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C266" s="7">
         <v>118000</v>
@@ -7150,7 +7147,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C267" s="12">
         <v>117000</v>
@@ -7165,7 +7162,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C268" s="7">
         <v>117000</v>
@@ -7180,7 +7177,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C269" s="7">
         <v>116000</v>
@@ -7195,7 +7192,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>272</v>
+        <v>816</v>
       </c>
       <c r="C270" s="7">
         <v>114000</v>
@@ -7210,7 +7207,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C271" s="7">
         <v>114000</v>
@@ -7225,7 +7222,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C272" s="12">
         <v>113000</v>
@@ -7240,7 +7237,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C273" s="14">
         <v>112000</v>
@@ -7255,7 +7252,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C274" s="7">
         <v>110000</v>
@@ -7270,7 +7267,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C275" s="7">
         <v>108000</v>
@@ -7285,7 +7282,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C276" s="7">
         <v>108000</v>
@@ -7300,7 +7297,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="13" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C277" s="14">
         <v>107000</v>
@@ -7315,7 +7312,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C278" s="7">
         <v>106000</v>
@@ -7330,7 +7327,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C279" s="7">
         <v>105000</v>
@@ -7345,7 +7342,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C280" s="7">
         <v>104000</v>
@@ -7360,7 +7357,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C281" s="7">
         <v>102000</v>
@@ -7375,7 +7372,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C282" s="7">
         <v>95091</v>
@@ -7390,7 +7387,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="13" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C283" s="14">
         <v>94657</v>
@@ -7405,7 +7402,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C284" s="7">
         <v>89451</v>
@@ -7420,7 +7417,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C285" s="7">
         <v>89117</v>
@@ -7435,7 +7432,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C286" s="7">
         <v>87197</v>
@@ -7450,7 +7447,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C287" s="7">
         <v>87054</v>
@@ -7465,7 +7462,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C288" s="7">
         <v>85429</v>
@@ -7480,7 +7477,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C289" s="7">
         <v>85142</v>
@@ -7495,7 +7492,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C290" s="7">
         <v>84961</v>
@@ -7510,7 +7507,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>293</v>
+        <v>825</v>
       </c>
       <c r="C291" s="7">
         <v>84585</v>
@@ -7525,7 +7522,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C292" s="7">
         <v>84476</v>
@@ -7540,7 +7537,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C293" s="7">
         <v>81457</v>
@@ -7555,7 +7552,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C294" s="7">
         <v>78435</v>
@@ -7570,7 +7567,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C295" s="7">
         <v>78392</v>
@@ -7585,7 +7582,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C296" s="7">
         <v>76196</v>
@@ -7600,7 +7597,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C297" s="7">
         <v>74867</v>
@@ -7615,7 +7612,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C298" s="7">
         <v>71816</v>
@@ -7630,7 +7627,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C299" s="7">
         <v>70951</v>
@@ -7645,7 +7642,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C300" s="7">
         <v>70906</v>
@@ -7660,7 +7657,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C301" s="7">
         <v>69978</v>
@@ -7675,7 +7672,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C302" s="14">
         <v>69443</v>
@@ -7690,7 +7687,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C303" s="7">
         <v>68970</v>
@@ -7705,7 +7702,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C304" s="14">
         <v>67308</v>
@@ -7720,7 +7717,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C305" s="7">
         <v>66374</v>
@@ -7735,7 +7732,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C306" s="7">
         <v>66058</v>
@@ -7750,7 +7747,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C307" s="7">
         <v>64033</v>
@@ -7765,7 +7762,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C308" s="7">
         <v>61964</v>
@@ -7780,7 +7777,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C309" s="7">
         <v>61647</v>
@@ -7795,7 +7792,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C310" s="7">
         <v>59412</v>
@@ -7810,7 +7807,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C311" s="7">
         <v>59391</v>
@@ -7825,7 +7822,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C312" s="7">
         <v>58581</v>
@@ -7840,7 +7837,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C313" s="7">
         <v>57956</v>
@@ -7855,7 +7852,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C314" s="7">
         <v>57436</v>
@@ -7870,7 +7867,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C315" s="7">
         <v>56432</v>
@@ -7885,7 +7882,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>318</v>
+        <v>833</v>
       </c>
       <c r="C316" s="7">
         <v>55633</v>
@@ -7900,7 +7897,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C317" s="7">
         <v>54580</v>
@@ -7915,7 +7912,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C318" s="7">
         <v>53820</v>
@@ -7930,7 +7927,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C319" s="7">
         <v>52887</v>
@@ -7945,7 +7942,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C320" s="7">
         <v>50854</v>
@@ -7960,7 +7957,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C321" s="7">
         <v>50464</v>
@@ -7975,7 +7972,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>324</v>
+        <v>827</v>
       </c>
       <c r="C322" s="7">
         <v>49325</v>
@@ -7990,7 +7987,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C323" s="7">
         <v>47822</v>
@@ -8005,7 +8002,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C324" s="7">
         <v>43261</v>
@@ -8020,7 +8017,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C325" s="7">
         <v>42578</v>
@@ -8035,7 +8032,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C326" s="7">
         <v>42320</v>
@@ -8050,7 +8047,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C327" s="7">
         <v>42243</v>
@@ -8065,7 +8062,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C328" s="7">
         <v>42014</v>
@@ -8080,7 +8077,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C329" s="7">
         <v>41566</v>
@@ -8095,7 +8092,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C330" s="12">
         <v>41155</v>
@@ -8110,7 +8107,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C331" s="7">
         <v>41096</v>
@@ -8125,7 +8122,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C332" s="7">
         <v>40866</v>
@@ -8140,7 +8137,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C333" s="7">
         <v>40546</v>
@@ -8155,7 +8152,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C334" s="7">
         <v>40351</v>
@@ -8170,7 +8167,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="17" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C335" s="7">
         <v>38776</v>
@@ -8185,7 +8182,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C336" s="7">
         <v>38549</v>
@@ -8200,7 +8197,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C337" s="12">
         <v>38378</v>
@@ -8215,7 +8212,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="17" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C338" s="7">
         <v>37919</v>
@@ -8230,7 +8227,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>341</v>
+        <v>834</v>
       </c>
       <c r="C339" s="14">
         <v>37902</v>
@@ -8245,7 +8242,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C340" s="7">
         <v>37011</v>
@@ -8260,7 +8257,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C341" s="7">
         <v>35963</v>
@@ -8275,7 +8272,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="13" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C342" s="14">
         <v>35417</v>
@@ -8290,7 +8287,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C343" s="7">
         <v>33359</v>
@@ -8305,7 +8302,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C344" s="7">
         <v>31287</v>
@@ -8320,7 +8317,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C345" s="7">
         <v>31050</v>
@@ -8335,7 +8332,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="17" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C346" s="7">
         <v>30564</v>
@@ -8350,7 +8347,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C347" s="12">
         <v>30254</v>
@@ -8365,7 +8362,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C348" s="7">
         <v>29946</v>
@@ -8380,7 +8377,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="C349" s="7">
         <v>28840</v>
@@ -8395,7 +8392,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="10" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C350" s="7">
         <v>28527</v>
@@ -8410,7 +8407,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C351" s="7">
         <v>27845</v>
@@ -8425,7 +8422,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C352" s="7">
         <v>27802</v>
@@ -8440,7 +8437,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C353" s="7">
         <v>26882</v>
@@ -8455,7 +8452,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C354" s="12">
         <v>26763</v>
@@ -8470,7 +8467,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C355" s="7">
         <v>25972</v>
@@ -8485,7 +8482,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C356" s="12">
         <v>25157</v>
@@ -8500,7 +8497,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="C357" s="7">
         <v>25017</v>
@@ -8515,7 +8512,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C358" s="7">
         <v>24607</v>
@@ -8530,7 +8527,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C359" s="7">
         <v>23966</v>
@@ -8545,7 +8542,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C360" s="7">
         <v>23297</v>
@@ -8560,7 +8557,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C361" s="7">
         <v>21965</v>
@@ -8575,7 +8572,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C362" s="7">
         <v>21897</v>
@@ -8590,7 +8587,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C363" s="7">
         <v>20787</v>
@@ -8605,7 +8602,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C364" s="12">
         <v>20504</v>
@@ -8620,7 +8617,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="10" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C365" s="7">
         <v>20404</v>
@@ -8635,7 +8632,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C366" s="7">
         <v>20102</v>
@@ -8650,7 +8647,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="C367" s="7">
         <v>20091</v>
@@ -8665,7 +8662,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C368" s="7">
         <v>19942</v>
@@ -8680,7 +8677,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C369" s="7">
         <v>19707</v>
@@ -8695,7 +8692,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C370" s="7">
         <v>19080</v>
@@ -8710,7 +8707,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C371" s="7">
         <v>19078</v>
@@ -8725,7 +8722,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C372" s="7">
         <v>18690</v>
@@ -8740,7 +8737,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C373" s="7">
         <v>18590</v>
@@ -8755,7 +8752,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C374" s="12">
         <v>18548</v>
@@ -8770,7 +8767,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C375" s="7">
         <v>17995</v>
@@ -8785,7 +8782,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C376" s="7">
         <v>17600</v>
@@ -8800,7 +8797,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C377" s="7">
         <v>17128</v>
@@ -8815,7 +8812,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C378" s="7">
         <v>16796</v>
@@ -8830,7 +8827,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C379" s="12">
         <v>15849</v>
@@ -8845,7 +8842,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C380" s="7">
         <v>15799</v>
@@ -8860,7 +8857,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="C381" s="7">
         <v>15562</v>
@@ -8875,7 +8872,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C382" s="7">
         <v>15486</v>
@@ -8890,7 +8887,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C383" s="14">
         <v>15416</v>
@@ -8905,7 +8902,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C384" s="7">
         <v>15163</v>
@@ -8920,7 +8917,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C385" s="7">
         <v>14279</v>
@@ -8935,7 +8932,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C386" s="7">
         <v>14166</v>
@@ -8950,7 +8947,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C387" s="7">
         <v>13046</v>
@@ -8965,7 +8962,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C388" s="7">
         <v>11748</v>
@@ -8980,7 +8977,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C389" s="14">
         <v>11713</v>
@@ -8995,7 +8992,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C390" s="7">
         <v>11530</v>
@@ -9010,7 +9007,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C391" s="12">
         <v>11289</v>
@@ -9025,7 +9022,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C392" s="7">
         <v>10520</v>
@@ -9040,7 +9037,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="13" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C393" s="14">
         <v>10360</v>
@@ -9055,7 +9052,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C394" s="7">
         <v>10275</v>
@@ -9070,7 +9067,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C395" s="7">
         <v>10190</v>
@@ -9085,7 +9082,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C396" s="7">
         <v>9457</v>
@@ -9100,7 +9097,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C397" s="7">
         <v>9118</v>
@@ -9115,7 +9112,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C398" s="7">
         <v>8897</v>
@@ -9130,7 +9127,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C399" s="7">
         <v>8000</v>
@@ -9145,7 +9142,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C400" s="7">
         <v>7911</v>
@@ -9160,7 +9157,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C401" s="7">
         <v>7399</v>
@@ -9175,7 +9172,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C402" s="7">
         <v>7307</v>
@@ -9190,7 +9187,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C403" s="7">
         <v>7020</v>
@@ -9205,7 +9202,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C404" s="7">
         <v>6555</v>
@@ -9220,7 +9217,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="C405" s="7">
         <v>6136</v>
@@ -9235,7 +9232,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C406" s="7">
         <v>6128</v>
@@ -9250,7 +9247,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C407" s="7">
         <v>6005</v>
@@ -9265,7 +9262,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C408" s="7">
         <v>5805</v>
@@ -9280,7 +9277,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="9" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C409" s="7">
         <v>5483</v>
@@ -9295,7 +9292,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C410" s="7">
         <v>5344</v>
@@ -9310,7 +9307,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="C411" s="7">
         <v>4881</v>
@@ -9325,7 +9322,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C412" s="7">
         <v>4655</v>
@@ -9340,7 +9337,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="10" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C413" s="7">
         <v>4511</v>
@@ -9355,7 +9352,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C414" s="7">
         <v>4093</v>
@@ -9370,7 +9367,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C415" s="7">
         <v>3900</v>
@@ -9385,7 +9382,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C416" s="7">
         <v>3893</v>
@@ -9400,7 +9397,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C417" s="7">
         <v>3870</v>
@@ -9415,7 +9412,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C418" s="7">
         <v>3786</v>
@@ -9430,7 +9427,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C419" s="7">
         <v>3594</v>
@@ -9445,7 +9442,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C420" s="7">
         <v>3552</v>
@@ -9460,7 +9457,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C421" s="7">
         <v>3356</v>
@@ -9475,7 +9472,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C422" s="7">
         <v>3108</v>
@@ -9490,7 +9487,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C423" s="12">
         <v>3010</v>
@@ -9505,7 +9502,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C424" s="7">
         <v>2581</v>
@@ -9520,7 +9517,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C425" s="7">
         <v>2542</v>
@@ -9535,7 +9532,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C426" s="7">
         <v>2460</v>
@@ -9550,7 +9547,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C427" s="7">
         <v>2386</v>
@@ -9565,7 +9562,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C428" s="7">
         <v>1978</v>
@@ -9580,7 +9577,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C429" s="7">
         <v>1824</v>
@@ -9595,7 +9592,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C430" s="7">
         <v>1439</v>
@@ -9610,7 +9607,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C431" s="7">
         <v>1248</v>
@@ -9625,7 +9622,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C432" s="7">
         <v>1248</v>
@@ -9640,7 +9637,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C433" s="7">
         <v>1147</v>
@@ -9655,7 +9652,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C434" s="7">
         <v>975</v>
@@ -9670,7 +9667,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="C435" s="7">
         <v>768</v>
@@ -9685,7 +9682,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="C436" s="7">
         <v>760</v>
@@ -9700,7 +9697,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="C437" s="7">
         <v>614</v>
@@ -9715,7 +9712,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="C438" s="12">
         <v>609</v>
@@ -9730,7 +9727,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C439" s="7">
         <v>576</v>
@@ -9745,7 +9742,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="C440" s="7">
         <v>384</v>
@@ -9760,7 +9757,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C441" s="7">
         <v>360</v>
@@ -9775,7 +9772,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C442" s="7">
         <v>342</v>
@@ -9790,7 +9787,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C443" s="7">
         <v>261</v>
@@ -9805,7 +9802,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="C444" s="7">
         <v>144</v>
@@ -9820,7 +9817,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C445" s="7">
         <v>144</v>
@@ -9835,7 +9832,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="10" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="C446" s="7">
         <v>117</v>
@@ -9850,7 +9847,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C447" s="12">
         <v>96</v>
@@ -9865,7 +9862,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="C448" s="7">
         <v>96</v>
@@ -9880,7 +9877,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C449" s="7">
         <v>1</v>
@@ -9895,7 +9892,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C450" s="7">
         <v>1</v>
@@ -9910,7 +9907,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C451" s="7">
         <v>1</v>
@@ -9925,7 +9922,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="C452" s="7">
         <v>1</v>
@@ -9940,7 +9937,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="C453" s="7">
         <v>1</v>
@@ -9955,7 +9952,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="11" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C454" s="7">
         <v>1</v>
@@ -9970,7 +9967,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C455" s="7">
         <v>1</v>
@@ -9985,7 +9982,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="C456" s="7">
         <v>1</v>
@@ -10000,7 +9997,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C457" s="7">
         <v>1</v>
@@ -10015,7 +10012,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="C458" s="7">
         <v>1</v>
@@ -10030,7 +10027,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="11" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C459" s="7">
         <v>1</v>
@@ -10045,7 +10042,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="C460" s="7">
         <v>1</v>
@@ -10060,7 +10057,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C461" s="7">
         <v>1</v>
@@ -10075,7 +10072,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C462" s="7">
         <v>1</v>
@@ -10090,7 +10087,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C463" s="7">
         <v>1</v>
@@ -10105,7 +10102,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="11" t="s">
-        <v>466</v>
+        <v>835</v>
       </c>
       <c r="C464" s="7">
         <v>1</v>
@@ -10120,7 +10117,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="C465" s="7">
         <v>1</v>
@@ -10135,7 +10132,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="11" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="C466" s="7">
         <v>1</v>
@@ -10150,7 +10147,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="13" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C467" s="7">
         <v>1</v>
@@ -10165,7 +10162,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="13" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C468" s="7">
         <v>1</v>
@@ -10180,7 +10177,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="13" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C469" s="7">
         <v>1</v>
@@ -10195,7 +10192,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="13" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C470" s="7">
         <v>1</v>
@@ -10210,7 +10207,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="13" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C471" s="7">
         <v>1</v>
@@ -10225,7 +10222,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="13" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="C472" s="7">
         <v>1</v>
@@ -10240,7 +10237,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="13" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="C473" s="7">
         <v>1</v>
@@ -10255,7 +10252,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="13" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C474" s="7">
         <v>1</v>
@@ -10270,7 +10267,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="13" t="s">
-        <v>477</v>
+        <v>836</v>
       </c>
       <c r="C475" s="7">
         <v>1</v>
@@ -10285,7 +10282,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="13" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C476" s="7">
         <v>1</v>
@@ -10300,7 +10297,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="13" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C477" s="7">
         <v>1</v>
@@ -10315,7 +10312,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="13" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C478" s="7">
         <v>1</v>
@@ -10330,7 +10327,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="13" t="s">
-        <v>481</v>
+        <v>820</v>
       </c>
       <c r="C479" s="7">
         <v>1</v>
@@ -10345,7 +10342,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="13" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C480" s="7">
         <v>1</v>
@@ -10360,7 +10357,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="13" t="s">
-        <v>483</v>
+        <v>809</v>
       </c>
       <c r="C481" s="7">
         <v>1</v>
@@ -10375,7 +10372,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C482" s="7">
         <v>1</v>
@@ -10390,7 +10387,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C483" s="7">
         <v>1</v>
@@ -10405,7 +10402,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C484" s="7">
         <v>1</v>
@@ -10420,7 +10417,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C485" s="7">
         <v>1</v>
@@ -10435,7 +10432,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="C486" s="7">
         <v>1</v>
@@ -10450,7 +10447,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>489</v>
+        <v>828</v>
       </c>
       <c r="C487" s="7">
         <v>1</v>
@@ -10465,7 +10462,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="C488" s="7">
         <v>1</v>
@@ -10480,7 +10477,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C489" s="7">
         <v>1</v>
@@ -10495,7 +10492,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="C490" s="7">
         <v>1</v>
@@ -10510,7 +10507,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="C491" s="7">
         <v>1</v>
@@ -10525,7 +10522,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="C492" s="7">
         <v>1</v>
@@ -10540,7 +10537,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="C493" s="7">
         <v>1</v>
@@ -10555,7 +10552,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="C494" s="7">
         <v>1</v>
@@ -10570,7 +10567,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="C495" s="7">
         <v>1</v>
@@ -10585,7 +10582,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="C496" s="7">
         <v>1</v>
@@ -10600,7 +10597,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="6" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="C497" s="7">
         <v>1</v>
@@ -10615,7 +10612,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="6" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="C498" s="7">
         <v>1</v>
@@ -10630,7 +10627,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="6" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="C499" s="7">
         <v>1</v>
@@ -10645,7 +10642,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="6" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="C500" s="7">
         <v>1</v>
@@ -10660,7 +10657,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="C501" s="7">
         <v>1</v>
@@ -10675,7 +10672,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="6" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="C502" s="7">
         <v>1</v>
@@ -10690,7 +10687,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="6" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="C503" s="7">
         <v>1</v>
@@ -10705,7 +10702,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="6" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="C504" s="7">
         <v>1</v>
@@ -10720,7 +10717,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="6" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="C505" s="7">
         <v>1</v>
@@ -10735,7 +10732,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="6" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="C506" s="7">
         <v>1</v>
@@ -10750,7 +10747,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="6" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="C507" s="7">
         <v>1</v>
@@ -10765,7 +10762,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C508" s="7">
         <v>1</v>
@@ -10780,7 +10777,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="6" t="s">
-        <v>511</v>
+        <v>829</v>
       </c>
       <c r="C509" s="7">
         <v>1</v>
@@ -10795,7 +10792,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="6" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C510" s="7">
         <v>1</v>
@@ -10810,7 +10807,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="6" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C511" s="7">
         <v>1</v>
@@ -10825,7 +10822,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C512" s="7">
         <v>1</v>
@@ -10840,7 +10837,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="6" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C513" s="7">
         <v>1</v>
@@ -10855,7 +10852,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="6" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="C514" s="7">
         <v>1</v>
@@ -10870,7 +10867,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="6" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C515" s="7">
         <v>1</v>
@@ -10885,7 +10882,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="C516" s="7">
         <v>1</v>
@@ -10900,7 +10897,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="6" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C517" s="7">
         <v>1</v>
@@ -10915,7 +10912,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C518" s="7">
         <v>1</v>
@@ -10930,7 +10927,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C519" s="7">
         <v>1</v>
@@ -10945,7 +10942,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="6" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C520" s="7">
         <v>1</v>
@@ -10960,7 +10957,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="6" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C521" s="7">
         <v>1</v>
@@ -10975,7 +10972,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="6" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C522" s="7">
         <v>1</v>
@@ -10990,7 +10987,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="6" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C523" s="7">
         <v>1</v>
@@ -11005,7 +11002,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C524" s="7">
         <v>1</v>
@@ -11020,7 +11017,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="6" t="s">
-        <v>527</v>
+        <v>810</v>
       </c>
       <c r="C525" s="7">
         <v>1</v>
@@ -11035,7 +11032,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="6" t="s">
-        <v>528</v>
+        <v>817</v>
       </c>
       <c r="C526" s="7">
         <v>1</v>
@@ -11050,7 +11047,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="6" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C527" s="7">
         <v>1</v>
@@ -11065,7 +11062,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="6" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="C528" s="7">
         <v>1</v>
@@ -11080,7 +11077,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="6" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="C529" s="7">
         <v>1</v>
@@ -11095,7 +11092,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="6" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="C530" s="7">
         <v>1</v>
@@ -11110,7 +11107,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C531" s="7">
         <v>1</v>
@@ -11125,7 +11122,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="C532" s="7">
         <v>1</v>
@@ -11140,7 +11137,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="6" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="C533" s="7">
         <v>1</v>
@@ -11155,7 +11152,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="6" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C534" s="7">
         <v>1</v>
@@ -11170,7 +11167,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="6" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="C535" s="7">
         <v>1</v>
@@ -11185,7 +11182,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="6" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="C536" s="7">
         <v>1</v>
@@ -11200,7 +11197,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="C537" s="7">
         <v>1</v>
@@ -11215,7 +11212,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="6" t="s">
-        <v>540</v>
+        <v>837</v>
       </c>
       <c r="C538" s="7">
         <v>1</v>
@@ -11230,7 +11227,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="6" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="C539" s="7">
         <v>1</v>
@@ -11245,7 +11242,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="C540" s="7">
         <v>1</v>
@@ -11260,7 +11257,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="C541" s="7">
         <v>1</v>
@@ -11275,7 +11272,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C542" s="7">
         <v>1</v>
@@ -11290,7 +11287,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="C543" s="7">
         <v>1</v>
@@ -11305,7 +11302,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="C544" s="7">
         <v>1</v>
@@ -11320,7 +11317,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="C545" s="7">
         <v>1</v>
@@ -11335,7 +11332,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="C546" s="7">
         <v>1</v>
@@ -11350,7 +11347,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="C547" s="7">
         <v>1</v>
@@ -11365,7 +11362,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="C548" s="7">
         <v>1</v>
@@ -11380,7 +11377,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="C549" s="7">
         <v>1</v>
@@ -11395,7 +11392,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="C550" s="7">
         <v>1</v>
@@ -11410,7 +11407,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
       <c r="C551" s="7">
         <v>1</v>
@@ -11425,7 +11422,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
       <c r="C552" s="7">
         <v>1</v>
@@ -11440,7 +11437,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="C553" s="7">
         <v>1</v>
@@ -11455,7 +11452,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="C554" s="7">
         <v>1</v>
@@ -11470,7 +11467,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="C555" s="7">
         <v>1</v>
@@ -11485,7 +11482,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="C556" s="7">
         <v>1</v>
@@ -11500,7 +11497,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="C557" s="7">
         <v>1</v>
@@ -11515,7 +11512,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="C558" s="7">
         <v>1</v>
@@ -11530,7 +11527,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="C559" s="7">
         <v>1</v>
@@ -11545,7 +11542,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="6" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="C560" s="7">
         <v>1</v>
@@ -11560,7 +11557,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="C561" s="7">
         <v>1</v>
@@ -11575,7 +11572,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="C562" s="7">
         <v>1</v>
@@ -11590,7 +11587,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
       <c r="C563" s="7">
         <v>1</v>
@@ -11605,7 +11602,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="C564" s="7">
         <v>1</v>
@@ -11620,7 +11617,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="C565" s="7">
         <v>1</v>
@@ -11635,7 +11632,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="6" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="C566" s="7">
         <v>1</v>
@@ -11650,7 +11647,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="C567" s="7">
         <v>1</v>
@@ -11665,7 +11662,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>570</v>
+        <v>543</v>
       </c>
       <c r="C568" s="7">
         <v>1</v>
@@ -11680,7 +11677,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="C569" s="7">
         <v>1</v>
@@ -11695,7 +11692,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>572</v>
+        <v>830</v>
       </c>
       <c r="C570" s="7">
         <v>1</v>
@@ -11710,7 +11707,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="6" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="C571" s="7">
         <v>1</v>
@@ -11725,7 +11722,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="C572" s="7">
         <v>1</v>
@@ -11740,7 +11737,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C573" s="7">
         <v>1</v>
@@ -11755,7 +11752,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="C574" s="7">
         <v>1</v>
@@ -11770,7 +11767,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="C575" s="7">
         <v>1</v>
@@ -11785,7 +11782,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>578</v>
+        <v>838</v>
       </c>
       <c r="C576" s="7">
         <v>1</v>
@@ -11800,7 +11797,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="C577" s="7">
         <v>1</v>
@@ -11815,7 +11812,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="C578" s="7">
         <v>1</v>
@@ -11830,7 +11827,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="C579" s="7">
         <v>1</v>
@@ -11845,7 +11842,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="C580" s="7">
         <v>1</v>
@@ -11860,7 +11857,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="C581" s="7">
         <v>1</v>
@@ -11875,7 +11872,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="C582" s="7">
         <v>1</v>
@@ -11890,7 +11887,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="C583" s="7">
         <v>1</v>
@@ -11905,7 +11902,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="C584" s="7">
         <v>1</v>
@@ -11920,7 +11917,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="C585" s="7">
         <v>1</v>
@@ -11935,7 +11932,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="C586" s="7">
         <v>1</v>
@@ -11950,7 +11947,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="C587" s="7">
         <v>1</v>
@@ -11965,7 +11962,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="C588" s="7">
         <v>1</v>
@@ -11980,7 +11977,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C589" s="7">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="6" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C590" s="7">
         <v>1</v>
@@ -12010,7 +12007,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="6" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="C591" s="7">
         <v>1</v>
@@ -12025,7 +12022,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="C592" s="7">
         <v>1</v>
@@ -12040,7 +12037,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="C593" s="7">
         <v>1</v>
@@ -12055,7 +12052,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="C594" s="7">
         <v>1</v>
@@ -12070,7 +12067,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>597</v>
+        <v>818</v>
       </c>
       <c r="C595" s="7">
         <v>1</v>
@@ -12085,7 +12082,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>598</v>
+        <v>839</v>
       </c>
       <c r="C596" s="7">
         <v>1</v>
@@ -12100,7 +12097,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="C597" s="7">
         <v>1</v>
@@ -12115,7 +12112,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="C598" s="7">
         <v>1</v>
@@ -12130,7 +12127,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="6" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="C599" s="7">
         <v>1</v>
@@ -12145,7 +12142,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="C600" s="7">
         <v>1</v>
@@ -12160,7 +12157,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="6" t="s">
-        <v>603</v>
+        <v>821</v>
       </c>
       <c r="C601" s="7">
         <v>1</v>
@@ -12175,7 +12172,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="C602" s="7">
         <v>1</v>
@@ -12190,7 +12187,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="C603" s="7">
         <v>1</v>
@@ -12205,7 +12202,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="C604" s="7">
         <v>1</v>
@@ -12220,7 +12217,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="C605" s="7">
         <v>1</v>
@@ -12235,7 +12232,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="C606" s="7">
         <v>1</v>
@@ -12250,7 +12247,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
       <c r="C607" s="7">
         <v>1</v>
@@ -12265,7 +12262,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="C608" s="7">
         <v>1</v>
@@ -12280,7 +12277,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="C609" s="7">
         <v>1</v>
@@ -12295,7 +12292,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="C610" s="7">
         <v>1</v>
@@ -12310,7 +12307,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="C611" s="7">
         <v>1</v>
@@ -12325,7 +12322,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="C612" s="7">
         <v>1</v>
@@ -12340,7 +12337,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="C613" s="7">
         <v>1</v>
@@ -12355,7 +12352,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="C614" s="7">
         <v>1</v>
@@ -12370,7 +12367,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="C615" s="7">
         <v>1</v>
@@ -12385,7 +12382,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="C616" s="7">
         <v>1</v>
@@ -12400,7 +12397,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="C617" s="7">
         <v>1</v>
@@ -12415,7 +12412,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="C618" s="7">
         <v>1</v>
@@ -12430,7 +12427,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="C619" s="7">
         <v>1</v>
@@ -12445,7 +12442,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="C620" s="7">
         <v>1</v>
@@ -12460,7 +12457,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="C621" s="7">
         <v>1</v>
@@ -12475,7 +12472,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="C622" s="7">
         <v>1</v>
@@ -12490,7 +12487,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="C623" s="7">
         <v>1</v>
@@ -12505,7 +12502,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="C624" s="7">
         <v>1</v>
@@ -12520,7 +12517,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="C625" s="7">
         <v>1</v>
@@ -12535,7 +12532,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="C626" s="7">
         <v>1</v>
@@ -12550,7 +12547,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="C627" s="7">
         <v>1</v>
@@ -12565,7 +12562,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="C628" s="7">
         <v>1</v>
@@ -12580,7 +12577,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="C629" s="7">
         <v>1</v>
@@ -12595,7 +12592,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="C630" s="7">
         <v>1</v>
@@ -12610,7 +12607,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="10" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="C631" s="7">
         <v>1</v>
@@ -12625,7 +12622,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="10" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="C632" s="7">
         <v>1</v>
@@ -12640,7 +12637,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="C633" s="7">
         <v>1</v>
@@ -12655,7 +12652,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="C634" s="7">
         <v>1</v>
@@ -12670,7 +12667,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="C635" s="7">
         <v>1</v>
@@ -12685,7 +12682,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="C636" s="7">
         <v>1</v>
@@ -12700,7 +12697,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="C637" s="7">
         <v>1</v>
@@ -12715,7 +12712,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="C638" s="7">
         <v>1</v>
@@ -12730,7 +12727,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="C639" s="7">
         <v>1</v>
@@ -12745,7 +12742,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="C640" s="7">
         <v>1</v>
@@ -12760,7 +12757,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="C641" s="7">
         <v>1</v>
@@ -12775,7 +12772,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="C642" s="7">
         <v>1</v>
@@ -12790,7 +12787,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="C643" s="7">
         <v>1</v>
@@ -12805,7 +12802,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="C644" s="7">
         <v>1</v>
@@ -12820,7 +12817,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="C645" s="7">
         <v>1</v>
@@ -12835,7 +12832,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="C646" s="7">
         <v>1</v>
@@ -12850,7 +12847,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="C647" s="7">
         <v>1</v>
@@ -12865,7 +12862,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="C648" s="7">
         <v>1</v>
@@ -12880,7 +12877,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="6" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="C649" s="7">
         <v>1</v>
@@ -12895,7 +12892,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="6" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="C650" s="7">
         <v>1</v>
@@ -12910,7 +12907,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="6" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="C651" s="7">
         <v>1</v>
@@ -12925,7 +12922,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="C652" s="7">
         <v>1</v>
@@ -12940,7 +12937,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="C653" s="7">
         <v>1</v>
@@ -12955,7 +12952,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="C654" s="7">
         <v>1</v>
@@ -12970,7 +12967,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="C655" s="7">
         <v>1</v>
@@ -12985,7 +12982,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="C656" s="7">
         <v>1</v>
@@ -13000,7 +12997,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C657" s="7">
         <v>1</v>
@@ -13015,7 +13012,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="C658" s="7">
         <v>1</v>
@@ -13030,7 +13027,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="C659" s="7">
         <v>1</v>
@@ -13045,7 +13042,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="C660" s="7">
         <v>1</v>
@@ -13060,7 +13057,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="C661" s="7">
         <v>1</v>
@@ -13075,7 +13072,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="C662" s="7">
         <v>1</v>
@@ -13090,7 +13087,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="C663" s="7">
         <v>1</v>
@@ -13105,7 +13102,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="C664" s="7">
         <v>1</v>
@@ -13120,7 +13117,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="C665" s="7">
         <v>1</v>
@@ -13135,7 +13132,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="6" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="C666" s="7">
         <v>1</v>
@@ -13150,7 +13147,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="C667" s="7">
         <v>1</v>
@@ -13165,7 +13162,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="C668" s="7">
         <v>1</v>
@@ -13180,7 +13177,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="C669" s="7">
         <v>1</v>
@@ -13195,7 +13192,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="C670" s="7">
         <v>1</v>
@@ -13210,7 +13207,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="C671" s="7">
         <v>1</v>
@@ -13225,7 +13222,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="C672" s="7">
         <v>1</v>
@@ -13240,7 +13237,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="C673" s="7">
         <v>1</v>
@@ -13255,7 +13252,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="C674" s="7">
         <v>1</v>
@@ -13270,7 +13267,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="C675" s="7">
         <v>1</v>
@@ -13285,7 +13282,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="C676" s="7">
         <v>1</v>
@@ -13300,7 +13297,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="C677" s="7">
         <v>1</v>
@@ -13315,7 +13312,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="C678" s="7">
         <v>1</v>
@@ -13330,7 +13327,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="C679" s="7">
         <v>1</v>
@@ -13345,7 +13342,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="C680" s="7">
         <v>1</v>
@@ -13360,7 +13357,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="C681" s="7">
         <v>1</v>
@@ -13375,7 +13372,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="C682" s="7">
         <v>1</v>
@@ -13390,7 +13387,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="C683" s="7">
         <v>1</v>
@@ -13405,7 +13402,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="C684" s="7">
         <v>1</v>
@@ -13420,7 +13417,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="C685" s="7">
         <v>1</v>
@@ -13435,7 +13432,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="C686" s="7">
         <v>1</v>
@@ -13450,7 +13447,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="10" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="C687" s="7">
         <v>1</v>
@@ -13465,7 +13462,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="C688" s="7">
         <v>1</v>
@@ -13480,7 +13477,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="10" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C689" s="7">
         <v>1</v>
@@ -13495,7 +13492,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="10" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="C690" s="7">
         <v>1</v>
@@ -13510,7 +13507,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="10" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="C691" s="7">
         <v>1</v>
@@ -13525,7 +13522,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="10" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="C692" s="7">
         <v>1</v>
@@ -13540,7 +13537,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="10" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="C693" s="7">
         <v>1</v>
@@ -13555,7 +13552,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="10" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="C694" s="7">
         <v>1</v>
@@ -13570,7 +13567,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="6" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="C695" s="7">
         <v>1</v>
@@ -13585,7 +13582,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="C696" s="7">
         <v>1</v>
@@ -13600,7 +13597,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="C697" s="7">
         <v>1</v>
@@ -13615,7 +13612,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="C698" s="7">
         <v>1</v>
@@ -13630,7 +13627,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="C699" s="7">
         <v>1</v>
@@ -13645,7 +13642,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="C700" s="7">
         <v>1</v>
@@ -13660,7 +13657,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="C701" s="7">
         <v>1</v>
@@ -13675,7 +13672,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="C702" s="7">
         <v>1</v>
@@ -13690,7 +13687,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="C703" s="7">
         <v>1</v>
@@ -13705,7 +13702,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="C704" s="7">
         <v>1</v>
@@ -13720,7 +13717,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="C705" s="7">
         <v>1</v>
@@ -13735,7 +13732,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="C706" s="7">
         <v>1</v>
@@ -13750,7 +13747,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="C707" s="7">
         <v>1</v>
@@ -13765,7 +13762,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="C708" s="7">
         <v>1</v>
@@ -13780,7 +13777,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="C709" s="7">
         <v>1</v>
@@ -13795,7 +13792,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="C710" s="7">
         <v>1</v>
@@ -13810,7 +13807,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="C711" s="7">
         <v>1</v>
@@ -13825,7 +13822,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="C712" s="7">
         <v>1</v>
@@ -13840,7 +13837,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C713" s="7">
         <v>1</v>
@@ -13855,7 +13852,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="C714" s="7">
         <v>1</v>
@@ -13870,7 +13867,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="C715" s="7">
         <v>1</v>
@@ -13885,7 +13882,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="C716" s="7">
         <v>1</v>
@@ -13900,7 +13897,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="C717" s="7">
         <v>1</v>
@@ -13915,7 +13912,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="C718" s="7">
         <v>1</v>
@@ -13930,7 +13927,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="C719" s="7">
         <v>1</v>
@@ -13945,7 +13942,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="C720" s="7">
         <v>1</v>
@@ -13960,7 +13957,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="C721" s="7">
         <v>1</v>
@@ -13975,7 +13972,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="C722" s="7">
         <v>1</v>
@@ -13990,7 +13987,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="C723" s="7">
         <v>1</v>
@@ -14005,7 +14002,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="C724" s="7">
         <v>1</v>
@@ -14020,7 +14017,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="C725" s="7">
         <v>1</v>
@@ -14035,7 +14032,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="C726" s="7">
         <v>1</v>
@@ -14050,7 +14047,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="C727" s="7">
         <v>1</v>
@@ -14065,7 +14062,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="6" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="C728" s="7">
         <v>1</v>
@@ -14080,7 +14077,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C729" s="7">
         <v>1</v>
@@ -14095,7 +14092,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="C730" s="7">
         <v>1</v>
@@ -14110,7 +14107,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C731" s="7">
         <v>1</v>
@@ -14125,7 +14122,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="C732" s="7">
         <v>1</v>
@@ -14140,7 +14137,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C733" s="7">
         <v>1</v>
@@ -14155,7 +14152,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="C734" s="7">
         <v>1</v>
@@ -14170,7 +14167,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="C735" s="7">
         <v>1</v>
@@ -14185,7 +14182,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="15" t="s">
-        <v>738</v>
+        <v>840</v>
       </c>
       <c r="C736" s="7">
         <v>1</v>
@@ -14200,7 +14197,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="15" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="C737" s="7">
         <v>1</v>
@@ -14215,7 +14212,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="15" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="C738" s="7">
         <v>1</v>
@@ -14230,7 +14227,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="15" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="C739" s="7">
         <v>1</v>
@@ -14245,7 +14242,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="15" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="C740" s="7">
         <v>1</v>
@@ -14260,7 +14257,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="15" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="C741" s="7">
         <v>1</v>
@@ -14275,7 +14272,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="15" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="C742" s="7">
         <v>1</v>
@@ -14290,7 +14287,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="15" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C743" s="7">
         <v>1</v>
@@ -14305,7 +14302,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="15" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="C744" s="7">
         <v>1</v>
@@ -14320,7 +14317,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="15" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="C745" s="7">
         <v>1</v>
@@ -14335,7 +14332,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="10" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="C746" s="7">
         <v>1</v>
@@ -14350,7 +14347,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="10" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="C747" s="7">
         <v>1</v>
@@ -14365,7 +14362,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="10" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="C748" s="7">
         <v>1</v>
@@ -14380,7 +14377,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="10" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="C749" s="7">
         <v>1</v>
@@ -14395,7 +14392,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="10" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="C750" s="7">
         <v>1</v>
@@ -14410,7 +14407,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="10" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="C751" s="7">
         <v>1</v>
@@ -14425,7 +14422,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="6" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="C752" s="7">
         <v>1</v>
@@ -14440,7 +14437,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="6" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="C753" s="7">
         <v>1</v>
@@ -14455,7 +14452,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="6" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="C754" s="7">
         <v>1</v>
@@ -14470,7 +14467,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="C755" s="7">
         <v>1</v>
@@ -14485,7 +14482,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="C756" s="7">
         <v>1</v>
@@ -14500,7 +14497,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="C757" s="7">
         <v>1</v>
@@ -14515,7 +14512,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="C758" s="7">
         <v>1</v>
@@ -14530,7 +14527,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="C759" s="7">
         <v>1</v>
@@ -14545,7 +14542,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="10" t="s">
-        <v>762</v>
+        <v>819</v>
       </c>
       <c r="C760" s="7">
         <v>1</v>
@@ -14560,7 +14557,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="10" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="C761" s="7">
         <v>1</v>
@@ -14575,7 +14572,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="10" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
       <c r="C762" s="7">
         <v>1</v>
@@ -14590,7 +14587,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="10" t="s">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="C763" s="7">
         <v>1</v>
@@ -14605,7 +14602,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="10" t="s">
-        <v>766</v>
+        <v>732</v>
       </c>
       <c r="C764" s="7">
         <v>1</v>
@@ -14620,7 +14617,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="10" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="C765" s="7">
         <v>1</v>
@@ -14635,7 +14632,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="10" t="s">
-        <v>768</v>
+        <v>734</v>
       </c>
       <c r="C766" s="7">
         <v>1</v>
@@ -14650,7 +14647,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="10" t="s">
-        <v>769</v>
+        <v>735</v>
       </c>
       <c r="C767" s="7">
         <v>1</v>
@@ -14665,7 +14662,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="10" t="s">
-        <v>770</v>
+        <v>736</v>
       </c>
       <c r="C768" s="7">
         <v>1</v>
@@ -14680,7 +14677,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="10" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="C769" s="7">
         <v>1</v>
@@ -14695,7 +14692,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="10" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="C770" s="7">
         <v>1</v>
@@ -14710,7 +14707,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="10" t="s">
-        <v>773</v>
+        <v>739</v>
       </c>
       <c r="C771" s="7">
         <v>1</v>
@@ -14725,7 +14722,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="10" t="s">
-        <v>774</v>
+        <v>740</v>
       </c>
       <c r="C772" s="7">
         <v>1</v>
@@ -14740,7 +14737,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="10" t="s">
-        <v>775</v>
+        <v>741</v>
       </c>
       <c r="C773" s="7">
         <v>1</v>
@@ -14755,7 +14752,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="10" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="C774" s="7">
         <v>1</v>
@@ -14770,7 +14767,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="10" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="C775" s="7">
         <v>1</v>
@@ -14785,7 +14782,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="10" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="C776" s="7">
         <v>1</v>
@@ -14800,7 +14797,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="10" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="C777" s="7">
         <v>1</v>
@@ -14815,7 +14812,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="10" t="s">
-        <v>780</v>
+        <v>745</v>
       </c>
       <c r="C778" s="7">
         <v>1</v>
@@ -14830,7 +14827,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="10" t="s">
-        <v>781</v>
+        <v>746</v>
       </c>
       <c r="C779" s="7">
         <v>1</v>
@@ -14845,7 +14842,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="10" t="s">
-        <v>782</v>
+        <v>747</v>
       </c>
       <c r="C780" s="7">
         <v>1</v>
@@ -14860,7 +14857,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="C781" s="7">
         <v>1</v>
@@ -14875,7 +14872,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="C782" s="7">
         <v>1</v>
@@ -14890,7 +14887,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>785</v>
+        <v>750</v>
       </c>
       <c r="C783" s="7">
         <v>1</v>
@@ -14905,7 +14902,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="9" t="s">
-        <v>786</v>
+        <v>751</v>
       </c>
       <c r="C784" s="7">
         <v>1</v>
@@ -14920,7 +14917,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="9" t="s">
-        <v>787</v>
+        <v>752</v>
       </c>
       <c r="C785" s="7">
         <v>1</v>
@@ -14935,7 +14932,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="9" t="s">
-        <v>788</v>
+        <v>753</v>
       </c>
       <c r="C786" s="7">
         <v>1</v>
@@ -14950,7 +14947,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="9" t="s">
-        <v>789</v>
+        <v>754</v>
       </c>
       <c r="C787" s="7">
         <v>1</v>
@@ -14965,7 +14962,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="9" t="s">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="C788" s="7">
         <v>1</v>
@@ -14980,7 +14977,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="9" t="s">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="C789" s="7">
         <v>1</v>
@@ -14995,7 +14992,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="9" t="s">
-        <v>792</v>
+        <v>757</v>
       </c>
       <c r="C790" s="7">
         <v>1</v>
@@ -15010,7 +15007,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="9" t="s">
-        <v>793</v>
+        <v>758</v>
       </c>
       <c r="C791" s="7">
         <v>1</v>
@@ -15025,7 +15022,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="9" t="s">
-        <v>794</v>
+        <v>759</v>
       </c>
       <c r="C792" s="7">
         <v>1</v>
@@ -15040,7 +15037,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="9" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="C793" s="7">
         <v>1</v>
@@ -15055,7 +15052,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="9" t="s">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="C794" s="7">
         <v>1</v>
@@ -15070,7 +15067,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="9" t="s">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="C795" s="7">
         <v>1</v>
@@ -15085,7 +15082,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="9" t="s">
-        <v>798</v>
+        <v>763</v>
       </c>
       <c r="C796" s="7">
         <v>1</v>
@@ -15100,7 +15097,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>799</v>
+        <v>764</v>
       </c>
       <c r="C797" s="7">
         <v>1</v>
@@ -15115,7 +15112,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="9" t="s">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="C798" s="7">
         <v>1</v>
@@ -15130,7 +15127,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="9" t="s">
-        <v>801</v>
+        <v>766</v>
       </c>
       <c r="C799" s="7">
         <v>1</v>
@@ -15145,7 +15142,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="9" t="s">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="C800" s="7">
         <v>1</v>
@@ -15160,7 +15157,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="9" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="C801" s="7">
         <v>1</v>
@@ -15175,7 +15172,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="9" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="C802" s="7">
         <v>1</v>
@@ -15190,7 +15187,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="9" t="s">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="C803" s="7">
         <v>1</v>
@@ -15205,7 +15202,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="9" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="C804" s="7">
         <v>1</v>
@@ -15220,7 +15217,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="9" t="s">
-        <v>807</v>
+        <v>772</v>
       </c>
       <c r="C805" s="7">
         <v>1</v>
@@ -15235,7 +15232,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="9" t="s">
-        <v>808</v>
+        <v>841</v>
       </c>
       <c r="C806" s="7">
         <v>1</v>
@@ -15250,7 +15247,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="9" t="s">
-        <v>809</v>
+        <v>773</v>
       </c>
       <c r="C807" s="7">
         <v>1</v>
@@ -15265,7 +15262,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="9" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="C808" s="7">
         <v>1</v>
@@ -15280,7 +15277,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="9" t="s">
-        <v>811</v>
+        <v>775</v>
       </c>
       <c r="C809" s="7">
         <v>1</v>
@@ -15295,7 +15292,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="9" t="s">
-        <v>812</v>
+        <v>776</v>
       </c>
       <c r="C810" s="7">
         <v>1</v>
@@ -15310,7 +15307,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="9" t="s">
-        <v>813</v>
+        <v>777</v>
       </c>
       <c r="C811" s="7">
         <v>1</v>
@@ -15325,7 +15322,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="9" t="s">
-        <v>814</v>
+        <v>778</v>
       </c>
       <c r="C812" s="7">
         <v>1</v>
@@ -15340,7 +15337,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="9" t="s">
-        <v>815</v>
+        <v>779</v>
       </c>
       <c r="C813" s="7">
         <v>1</v>
@@ -15355,7 +15352,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="9" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="C814" s="7">
         <v>1</v>
@@ -15370,7 +15367,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="9" t="s">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="C815" s="7">
         <v>1</v>
@@ -15385,7 +15382,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="C816" s="7">
         <v>1</v>
@@ -15400,7 +15397,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="9" t="s">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="C817" s="7">
         <v>1</v>
@@ -15415,7 +15412,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="9" t="s">
-        <v>820</v>
+        <v>783</v>
       </c>
       <c r="C818" s="7">
         <v>1</v>
@@ -15430,7 +15427,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="C819" s="7">
         <v>1</v>
@@ -15445,7 +15442,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>822</v>
+        <v>785</v>
       </c>
       <c r="C820" s="7">
         <v>1</v>
@@ -15460,7 +15457,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="9" t="s">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="C821" s="7">
         <v>1</v>
@@ -15475,7 +15472,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="9" t="s">
-        <v>824</v>
+        <v>787</v>
       </c>
       <c r="C822" s="7">
         <v>1</v>
@@ -15490,7 +15487,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="9" t="s">
-        <v>825</v>
+        <v>788</v>
       </c>
       <c r="C823" s="7">
         <v>1</v>
@@ -15505,7 +15502,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="9" t="s">
-        <v>826</v>
+        <v>789</v>
       </c>
       <c r="C824" s="7">
         <v>1</v>
@@ -15520,7 +15517,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="9" t="s">
-        <v>827</v>
+        <v>790</v>
       </c>
       <c r="C825" s="7">
         <v>1</v>
@@ -15535,7 +15532,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="9" t="s">
-        <v>828</v>
+        <v>791</v>
       </c>
       <c r="C826" s="7">
         <v>1</v>
@@ -15550,7 +15547,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="9" t="s">
-        <v>829</v>
+        <v>792</v>
       </c>
       <c r="C827" s="7">
         <v>1</v>
@@ -15565,7 +15562,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="9" t="s">
-        <v>830</v>
+        <v>793</v>
       </c>
       <c r="C828" s="7">
         <v>1</v>
@@ -15580,7 +15577,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="9" t="s">
-        <v>831</v>
+        <v>794</v>
       </c>
       <c r="C829" s="7">
         <v>1</v>
@@ -15595,7 +15592,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="9" t="s">
-        <v>832</v>
+        <v>795</v>
       </c>
       <c r="C830" s="7">
         <v>1</v>
@@ -15610,7 +15607,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="9" t="s">
-        <v>833</v>
+        <v>796</v>
       </c>
       <c r="C831" s="7">
         <v>1</v>
@@ -15625,7 +15622,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="9" t="s">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="C832" s="7">
         <v>1</v>
@@ -15640,7 +15637,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="9" t="s">
-        <v>835</v>
+        <v>798</v>
       </c>
       <c r="C833" s="7">
         <v>1</v>
@@ -15655,7 +15652,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="9" t="s">
-        <v>836</v>
+        <v>799</v>
       </c>
       <c r="C834" s="7">
         <v>1</v>
@@ -15670,7 +15667,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="9" t="s">
-        <v>837</v>
+        <v>800</v>
       </c>
       <c r="C835" s="7">
         <v>1</v>
@@ -15685,7 +15682,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="9" t="s">
-        <v>838</v>
+        <v>801</v>
       </c>
       <c r="C836" s="7">
         <v>1</v>
@@ -15700,7 +15697,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="9" t="s">
-        <v>839</v>
+        <v>802</v>
       </c>
       <c r="C837" s="7">
         <v>1</v>
@@ -15715,7 +15712,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="9" t="s">
-        <v>840</v>
+        <v>803</v>
       </c>
       <c r="C838" s="7">
         <v>1</v>
@@ -15730,7 +15727,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="9" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C839" s="7">
         <v>1</v>
@@ -15745,7 +15742,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="9" t="s">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="C840" s="7">
         <v>1</v>
